--- a/design/Excel/excel/地图层数表_layer.xlsx
+++ b/design/Excel/excel/地图层数表_layer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_layer" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-表modular的ID</t>
+表modular的ID，无则不填
+格式：模块ID#模块ID#模块ID</t>
         </r>
       </text>
     </comment>
@@ -237,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>层数ID</t>
   </si>
@@ -389,30 +390,10 @@
     </r>
   </si>
   <si>
-    <t>3#5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0001#1|10002#3</t>
-    </r>
-  </si>
-  <si>
-    <t>10005#10006#10007#10008#10009#10010</t>
+    <t>1#1</t>
+  </si>
+  <si>
+    <t>10001#2</t>
   </si>
   <si>
     <t>1#1#1|1#2#1|2#2#3|2#3#1</t>
@@ -443,19 +424,16 @@
   <si>
     <t>1#1|2#1|3#1</t>
   </si>
-  <si>
-    <t>10001#1|10002#2|10003#2|10004#3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -479,9 +457,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,127 +594,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -636,187 +614,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,17 +808,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,21 +848,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,47 +869,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -935,10 +913,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -947,133 +925,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1432,13 +1410,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
@@ -1561,547 +1539,20 @@
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>100102</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>100103</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>100201</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1002</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>100202</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1002</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>100203</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1002</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>100204</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1002</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>100205</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1002</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
-        <v>100301</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1003</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>100302</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1003</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
-        <v>100303</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1003</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
-        <v>100304</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1003</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>100401</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1004</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>100402</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1004</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1">
-        <v>100403</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1004</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1">
-        <v>100404</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1004</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="1">
         <v>1</v>
       </c>
     </row>
